--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43241,6 +43241,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43276,6 +43276,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43311,6 +43311,41 @@
         <v>300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>25200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43346,6 +43346,43 @@
         <v>25200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43383,6 +43383,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43418,6 +43418,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>121300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43453,6 +43453,41 @@
         <v>121300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43488,6 +43488,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>9200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43523,6 +43523,41 @@
         <v>9200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>21700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43558,6 +43558,41 @@
         <v>21700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>50200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43593,6 +43593,41 @@
         <v>50200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43628,6 +43628,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43663,6 +43663,76 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>45500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43733,6 +43733,76 @@
         <v>45500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>34500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43803,6 +43803,41 @@
         <v>34500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>22300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43838,6 +43838,41 @@
         <v>22300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>2700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43873,6 +43873,41 @@
         <v>2700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43908,6 +43908,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>39500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43943,6 +43943,76 @@
         <v>39500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44013,6 +44013,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>11600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44048,6 +44048,41 @@
         <v>11600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>85400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91438,6 +91438,41 @@
         <v>85400</v>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I2595" t="n">
+        <v>158900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2595"/>
+  <dimension ref="A1:I2596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91473,6 +91473,41 @@
         <v>158900</v>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H2596" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2596" t="n">
+        <v>61000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2596"/>
+  <dimension ref="A1:I2597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91508,6 +91508,41 @@
         <v>61000</v>
       </c>
     </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H2597" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I2597" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2597"/>
+  <dimension ref="A1:I2598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91543,6 +91543,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H2598" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I2598" t="n">
+        <v>31800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2598"/>
+  <dimension ref="A1:I2599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91578,6 +91578,41 @@
         <v>31800</v>
       </c>
     </row>
+    <row r="2599">
+      <c r="A2599" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2599" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F2599" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2599" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H2599" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2599" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2599"/>
+  <dimension ref="A1:I2600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91613,6 +91613,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="2600">
+      <c r="A2600" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2600" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2600" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2600" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2600" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2600" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2600"/>
+  <dimension ref="A1:I2601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91648,6 +91648,41 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2601" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F2601" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2601" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H2601" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I2601" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2601"/>
+  <dimension ref="A1:I2602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91683,6 +91683,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2602" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2602" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2602" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I2602" t="n">
+        <v>49000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2602"/>
+  <dimension ref="A1:I2603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91718,6 +91718,41 @@
         <v>49000</v>
       </c>
     </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2603" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="G2603" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2603" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I2603" t="n">
+        <v>42900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2603"/>
+  <dimension ref="A1:I2604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91753,6 +91753,41 @@
         <v>42900</v>
       </c>
     </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2604" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H2604" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2604" t="n">
+        <v>190800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2604"/>
+  <dimension ref="A1:I2605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91788,6 +91788,41 @@
         <v>190800</v>
       </c>
     </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2605" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2605" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2605" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2605" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2605" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2605"/>
+  <dimension ref="A1:I2606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91823,6 +91823,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2606" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2606" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2606" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2606" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2606"/>
+  <dimension ref="A1:I2607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91858,6 +91858,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="2607">
+      <c r="A2607" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2607" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F2607" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2607" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2607" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2607" t="n">
+        <v>25900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2607"/>
+  <dimension ref="A1:I2608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91893,6 +91893,41 @@
         <v>25900</v>
       </c>
     </row>
+    <row r="2608">
+      <c r="A2608" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2608" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F2608" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2608" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="H2608" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2608" t="n">
+        <v>37200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2608"/>
+  <dimension ref="A1:I2609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91928,6 +91928,43 @@
         <v>37200</v>
       </c>
     </row>
+    <row r="2609">
+      <c r="A2609" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2609" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2609" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2609" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2609" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2609" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2859"/>
+  <dimension ref="A1:I2860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100715,6 +100715,41 @@
         </is>
       </c>
     </row>
+    <row r="2860">
+      <c r="A2860" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2860" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2860" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2860" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2860" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G2860" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2860" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I2860" t="n">
+        <v>30800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2860"/>
+  <dimension ref="A1:I2861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100750,6 +100750,41 @@
         <v>30800</v>
       </c>
     </row>
+    <row r="2861">
+      <c r="A2861" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2861" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2861" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2861" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2861" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2861" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H2861" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2861" t="n">
+        <v>54900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2861"/>
+  <dimension ref="A1:I2862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100785,6 +100785,41 @@
         <v>54900</v>
       </c>
     </row>
+    <row r="2862">
+      <c r="A2862" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2862" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2862" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2862" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2862" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2862" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2862" t="n">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2862"/>
+  <dimension ref="A1:I2863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100820,6 +100820,41 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="2863">
+      <c r="A2863" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2863" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2863" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2863" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2863" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2863" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I2863" t="n">
+        <v>64900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2863"/>
+  <dimension ref="A1:I2864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100855,6 +100855,41 @@
         <v>64900</v>
       </c>
     </row>
+    <row r="2864">
+      <c r="A2864" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2864" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2864" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2864" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2864" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H2864" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="I2864" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2864"/>
+  <dimension ref="A1:I2865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100890,6 +100890,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2865">
+      <c r="A2865" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2865" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2865" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2865" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2865" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2865" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2865" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2865"/>
+  <dimension ref="A1:I2866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100925,6 +100925,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2866">
+      <c r="A2866" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2866" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2866" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="F2866" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2866" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2866" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2866" t="n">
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2866"/>
+  <dimension ref="A1:I2867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100960,6 +100960,41 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="2867">
+      <c r="A2867" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2867" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2867" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G2867" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2867" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2867" t="n">
+        <v>25100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2867"/>
+  <dimension ref="A1:I2868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100995,6 +100995,41 @@
         <v>25100</v>
       </c>
     </row>
+    <row r="2868">
+      <c r="A2868" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2868" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2868" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2868" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G2868" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2868" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2868" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2868"/>
+  <dimension ref="A1:I2869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101030,6 +101030,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="2869">
+      <c r="A2869" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2869" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2869" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2869" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G2869" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2869" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2869" t="n">
+        <v>93300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2869"/>
+  <dimension ref="A1:I2871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101065,6 +101065,76 @@
         <v>93300</v>
       </c>
     </row>
+    <row r="2870">
+      <c r="A2870" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2870" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2870" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F2870" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2870" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2870" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2870" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2871" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2871" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F2871" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2871" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H2871" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I2871" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2871"/>
+  <dimension ref="A1:I2872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101135,6 +101135,41 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="2872">
+      <c r="A2872" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2872" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2872" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F2872" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2872" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2872" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2872" t="n">
+        <v>100300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2872"/>
+  <dimension ref="A1:I2875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101170,6 +101170,111 @@
         <v>100300</v>
       </c>
     </row>
+    <row r="2873">
+      <c r="A2873" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2873" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2873" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2873" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2873" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H2873" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2873" t="n">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2874" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2874" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2874" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2874" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2874" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2874" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2875" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2875" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F2875" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2875" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2875" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2875" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2875"/>
+  <dimension ref="A1:I2876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101275,6 +101275,43 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="2876">
+      <c r="A2876" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2876" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2876" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2876" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2876" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H2876" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2876" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2876"/>
+  <dimension ref="A1:I2877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101312,6 +101312,41 @@
         </is>
       </c>
     </row>
+    <row r="2877">
+      <c r="A2877" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2877" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2877" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2877" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F2877" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2877" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H2877" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I2877" t="n">
+        <v>58300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5140.xlsx
+++ b/data/5140.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2877"/>
+  <dimension ref="A1:I2880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101347,6 +101347,111 @@
         <v>58300</v>
       </c>
     </row>
+    <row r="2878">
+      <c r="A2878" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2878" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2878" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F2878" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="G2878" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H2878" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="I2878" t="n">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2879" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2879" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="F2879" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G2879" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="H2879" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I2879" t="n">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="D2880" t="inlineStr">
+        <is>
+          <t>TASCO</t>
+        </is>
+      </c>
+      <c r="E2880" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F2880" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G2880" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2880" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2880" t="n">
+        <v>51500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
